--- a/src/test/java/com/genvideo/xls/Backstage_Test_Cases2.xlsx
+++ b/src/test/java/com/genvideo/xls/Backstage_Test_Cases2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="302">
   <si>
     <t>TCID</t>
   </si>
@@ -929,7 +929,13 @@
     <t>Title</t>
   </si>
   <si>
-    <t>FAIL -- text not verified  -- Wrong pixel ratio - images must be square</t>
+    <t>FAIL -- Not able to click on linkElement is not currently visible and so may not be interacted with
+Command duration or timeout: 20.06 seconds
+Build info: version: '2.53.0', revision: '35ae25b1534ae328c771e0856c93e187490ca824', time: '2016-03-15 10:43:46'
+System info: host: 'pclap-002', ip: '172.16.146.45', os.name: 'Windows 7', os.arch: 'amd64', os.version: '6.1', java.version: '1.8.0_65'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Capabilities [{applicationCacheEnabled=true, rotatable=false, handlesAlerts=true, databaseEnabled=true, version=46.0.1, platform=WINDOWS, nativeEvents=false, acceptSslCerts=false, webStorageEnabled=true, locationContextEnabled=true, browserName=firefox, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 91aae383-f297-4d4a-9a79-3495ac9387ea</t>
   </si>
 </sst>
 </file>
@@ -1550,11 +1556,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="22.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="10.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="16.140625" collapsed="true"/>
-    <col min="5" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="22.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1595,28 +1601,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H22" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="9.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="6.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="38.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="30.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="28.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="15.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="7.51171875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="8.62890625" collapsed="true"/>
-    <col min="18" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="8.85546875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -5832,18 +5832,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="8" width="25.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="8" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="8" width="25.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="8" width="12.85546875" collapsed="true"/>
-    <col min="5" max="12" customWidth="true" style="8" width="14.0" collapsed="true"/>
-    <col min="13" max="16" customWidth="true" style="8" width="18.42578125" collapsed="true"/>
-    <col min="17" max="19" customWidth="true" style="8" width="24.85546875" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" style="8" width="16.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="8" width="9.28515625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="8" width="10.42578125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="8" width="6.3984375" collapsed="true"/>
-    <col min="26" max="16384" style="8" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="25.140625" style="8" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="5" max="12" width="14" style="8" customWidth="1" collapsed="1"/>
+    <col min="13" max="16" width="18.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="17" max="19" width="24.85546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="20" max="22" width="16.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.28515625" style="8" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.42578125" style="8" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="255" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="16384" width="8.85546875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -5991,7 +5991,7 @@
         <v>16</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="30" x14ac:dyDescent="0.25">
